--- a/biology/Botanique/Épilobe/Épilobe.xlsx
+++ b/biology/Botanique/Épilobe/Épilobe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pilobe</t>
+          <t>Épilobe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epilobium
 Epilobium, l’Épilobe, est un genre de plantes herbacées de la famille des Onagracées.
-L'épilobe est la francisation d’Epilobium, du grec επί, epi, sur, et λόβιον, lobion, petite cosse. En effet, les sépales ou les pétales en forme de lobes triangulaires sont situés au sommet d'un ovaire infère qui ressemble à une petite gousse[2].
+L'épilobe est la francisation d’Epilobium, du grec επί, epi, sur, et λόβιον, lobion, petite cosse. En effet, les sépales ou les pétales en forme de lobes triangulaires sont situés au sommet d'un ovaire infère qui ressemble à une petite gousse.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pilobe</t>
+          <t>Épilobe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (8 mai 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (8 mai 2021) :
 Epilobium ×abortivum Hausskn.
 Epilobium adenocaulon Hausskn.
 Epilobium ×aggregatum Celak.
@@ -784,7 +798,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pilobe</t>
+          <t>Épilobe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -802,9 +816,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres suivants sont synonymes de Epilobium selon Plants of the World online (POWO)                (8 mai 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres suivants sont synonymes de Epilobium selon Plants of the World online (POWO)                (8 mai 2021) :
 Boisduvalia Spach
 Chamaenerion Ség.
 Chamerion Raf. ex Holub
@@ -824,7 +840,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pilobe</t>
+          <t>Épilobe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -842,7 +858,9 @@
           <t>Actions thérapeutiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Principalement utilisé dans le traitement des troubles de la prostate, l'épilobe s'utilise principalement en infusion[réf. nécessaire].
 			Épilobe.
